--- a/frontend/src/Use/publicationUse/publication.xlsx
+++ b/frontend/src/Use/publicationUse/publication.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinseungmi/home/pagediv/frontend/src/publicationUse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\Homepage\frontend\src\Use\publicationUse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28463B50-8098-BA4B-AA61-74ADC3D77949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32710564-3E24-4122-AC10-397B6719F397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7840" yWindow="500" windowWidth="20960" windowHeight="16280" firstSheet="3" activeTab="6" xr2:uid="{D5EF3CA4-ED85-1E48-82D5-270E7131560E}"/>
+    <workbookView xWindow="780" yWindow="930" windowWidth="26280" windowHeight="17580" tabRatio="887" activeTab="5" xr2:uid="{D5EF3CA4-ED85-1E48-82D5-270E7131560E}"/>
   </bookViews>
   <sheets>
-    <sheet name="SheetName" sheetId="8" r:id="rId1"/>
-    <sheet name="InternationalJournalPapers" sheetId="1" r:id="rId2"/>
-    <sheet name="DomesticJournalPapers" sheetId="2" r:id="rId3"/>
-    <sheet name="InternationalConferencePapers" sheetId="3" r:id="rId4"/>
-    <sheet name="InternationalWorkshopPapers" sheetId="4" r:id="rId5"/>
-    <sheet name="DomesticConferencePapers" sheetId="5" r:id="rId6"/>
-    <sheet name="RegisteredPatents" sheetId="6" r:id="rId7"/>
-    <sheet name="Book" sheetId="7" r:id="rId8"/>
+    <sheet name="International Journal Papers" sheetId="1" r:id="rId1"/>
+    <sheet name="International Conference Papers" sheetId="3" r:id="rId2"/>
+    <sheet name="Domestic Journal Papers" sheetId="2" r:id="rId3"/>
+    <sheet name="International Workshop Papers" sheetId="4" r:id="rId4"/>
+    <sheet name="Domestic Conference Papers" sheetId="5" r:id="rId5"/>
+    <sheet name="Registered Patents" sheetId="6" r:id="rId6"/>
+    <sheet name="Book" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="193">
   <si>
     <t>Title</t>
   </si>
@@ -716,28 +715,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>International Journal Papers</t>
-  </si>
-  <si>
-    <t>Domestic Journal Papers</t>
-  </si>
-  <si>
-    <t>International Conference Papers</t>
-  </si>
-  <si>
-    <t>International Workshop Papers</t>
-  </si>
-  <si>
-    <t>Domestic Conference Papers</t>
-  </si>
-  <si>
-    <t>Book</t>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.mdpi.com/2071-1050/14/5/2802#cite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -795,10 +772,6 @@
   </si>
   <si>
     <t>https://www.google.com/url?q=https%3A%2F%2Faclanthology.org%2F2021.fnp-1.20%2F&amp;sa=D&amp;sntz=1&amp;usg=AOvVaw2_VuK0YZ4wdFpw3D0mt-qY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registered Patents </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -935,7 +908,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -976,9 +949,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1295,102 +1265,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C34E80-F924-0240-BC54-B280D6309AB1}">
-  <dimension ref="A1:A24"/>
-  <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A8" sqref="A2:A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="29.28515625" style="10" customWidth="1"/>
-    <col min="2" max="16384" width="10.7109375" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="14"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="11"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="11"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="11"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="11"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="11"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="11"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="11"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="11"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="11"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48205BA5-F6B5-D54D-AE30-D8D79B184361}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -1398,14 +1272,14 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="59.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="10" hidden="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="10"/>
+    <col min="1" max="1" width="59.109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="10" hidden="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.6640625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1433,7 +1307,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C2" s="10">
         <v>2022</v>
@@ -1442,24 +1316,24 @@
         <v>10</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="11" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C3" s="10">
         <v>2022</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1479,7 +1353,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1530,7 +1404,7 @@
         <v>23</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1547,7 +1421,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1578,7 +1452,7 @@
         <v>28</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1595,7 +1469,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1612,7 +1486,7 @@
         <v>49</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1629,7 +1503,7 @@
         <v>49</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1646,7 +1520,7 @@
         <v>49</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1663,7 +1537,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1680,7 +1554,7 @@
         <v>49</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1740,6 +1614,208 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA636D9-04EA-A94B-9245-A3757D0CAA60}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="69.88671875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="10.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2004</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F334C0-DEA6-3247-BF68-7D4F5FE7BE27}">
   <dimension ref="A1:E12"/>
@@ -1748,10 +1824,10 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="61.7109375" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="10.7109375" style="2"/>
+    <col min="1" max="1" width="61.6640625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1905,208 +1981,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DA636D9-04EA-A94B-9245-A3757D0CAA60}">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="69.85546875" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="10.7109375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="8">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="8">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="8">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="8">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="8">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="8">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="8">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="8">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="8">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="8">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="8">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="8">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="8">
-        <v>2004</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B438676-8EEF-B240-9FFE-BD17F6E120C8}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -2114,10 +1988,10 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="65.5703125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="10.7109375" style="2"/>
+    <col min="1" max="1" width="65.5546875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2153,7 +2027,7 @@
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2295,7 +2169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6107A3F-DB8D-D247-B0C1-4294FDCA2A47}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2303,10 +2177,10 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="59.5703125" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="10.7109375" style="2"/>
+    <col min="1" max="1" width="59.5546875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2445,6 +2319,197 @@
       </c>
       <c r="C12" s="2">
         <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0045E7-876E-B74A-99F1-436E1C99C4C0}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="56.33203125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="10.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2011</v>
       </c>
     </row>
   </sheetData>
@@ -2454,197 +2519,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0045E7-876E-B74A-99F1-436E1C99C4C0}">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="56.28515625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="10.7109375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="8">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="8">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="8">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="8">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="8">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="8">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="8">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="8">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="8">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="8">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="8">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="8">
-        <v>2011</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3FAB8B-BD0C-DE42-994C-33FAE5055A15}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2652,10 +2526,10 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="58.140625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="10.7109375" style="2"/>
+    <col min="1" max="1" width="58.109375" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2689,5 +2563,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>